--- a/Hardware/MOUSER-450001XXXXxlsx_cansat_REMPLISfinal.xlsx
+++ b/Hardware/MOUSER-450001XXXXxlsx_cansat_REMPLISfinal.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="109">
   <si>
     <t xml:space="preserve">MOUSER</t>
   </si>
@@ -100,82 +100,61 @@
     <t xml:space="preserve">40</t>
   </si>
   <si>
-    <t xml:space="preserve">306-SHR-04V-S-B </t>
+    <t xml:space="preserve">262-BMP581 </t>
   </si>
   <si>
     <t xml:space="preserve">50</t>
   </si>
   <si>
-    <t xml:space="preserve">306-SSHL-003T-P0.2 </t>
+    <t xml:space="preserve">538-503552-1022 </t>
   </si>
   <si>
     <t xml:space="preserve">60</t>
   </si>
   <si>
-    <t xml:space="preserve">306-APSHR-03V-S </t>
+    <t xml:space="preserve">538-503548-1022 </t>
   </si>
   <si>
     <t xml:space="preserve">70</t>
   </si>
   <si>
-    <t xml:space="preserve">306-BM04BSRSSTBLFSNP </t>
+    <t xml:space="preserve">538-503548-1222 </t>
   </si>
   <si>
     <t xml:space="preserve">80</t>
   </si>
   <si>
-    <t xml:space="preserve">511-TSC102IDT </t>
+    <t xml:space="preserve">538-503552-1222 </t>
   </si>
   <si>
     <t xml:space="preserve">90</t>
   </si>
   <si>
-    <t xml:space="preserve">81-GRM32ER61E226KE15 </t>
+    <t xml:space="preserve">306-BM03BSRSSTBLFSNP </t>
   </si>
   <si>
     <t xml:space="preserve">100</t>
   </si>
   <si>
-    <t xml:space="preserve">963-UMK325BJ106MM-T </t>
-  </si>
-  <si>
     <t xml:space="preserve">110</t>
   </si>
   <si>
     <t xml:space="preserve">120</t>
   </si>
   <si>
-    <t xml:space="preserve">579-MCP14A0151T-E/CH </t>
-  </si>
-  <si>
     <t xml:space="preserve">130</t>
   </si>
   <si>
-    <t xml:space="preserve">726-BSC0909NS </t>
-  </si>
-  <si>
     <t xml:space="preserve">140</t>
   </si>
   <si>
-    <t xml:space="preserve">511-STM32WB55CGU6 </t>
-  </si>
-  <si>
     <t xml:space="preserve">150</t>
   </si>
   <si>
-    <t xml:space="preserve">511-MLPF-WB-01E3 </t>
-  </si>
-  <si>
     <t xml:space="preserve">160</t>
   </si>
   <si>
-    <t xml:space="preserve">712-CONUFL001-SMD-T </t>
-  </si>
-  <si>
     <t xml:space="preserve">170</t>
-  </si>
-  <si>
-    <t xml:space="preserve">810-DLF16250LT5028A1 </t>
   </si>
   <si>
     <t xml:space="preserve">180</t>
@@ -423,14 +402,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="0.00"/>
     <numFmt numFmtId="167" formatCode="#,##0.00\ [$€-40C];[RED]\-#,##0.00\ [$€-40C]"/>
-    <numFmt numFmtId="168" formatCode="General"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -489,6 +467,19 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FFF10D0C"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFF10D0C"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <b val="true"/>
       <sz val="10"/>
       <color rgb="FFF10D0C"/>
@@ -510,11 +501,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -596,7 +582,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -649,7 +635,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -657,15 +651,15 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -673,15 +667,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -705,15 +699,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -903,7 +897,7 @@
   <dimension ref="A1:P65"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E19" activeCellId="0" sqref="E19"/>
+      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1016,7 +1010,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>15</v>
@@ -1092,7 +1086,7 @@
         <v>26</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>15</v>
@@ -1101,7 +1095,7 @@
         <v>21</v>
       </c>
       <c r="I6" s="7" t="n">
-        <v>0.11</v>
+        <v>2.19</v>
       </c>
       <c r="J6" s="4" t="s">
         <v>17</v>
@@ -1129,7 +1123,7 @@
         <v>28</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>15</v>
@@ -1138,7 +1132,7 @@
         <v>21</v>
       </c>
       <c r="I7" s="7" t="n">
-        <v>0.067</v>
+        <v>0.675</v>
       </c>
       <c r="J7" s="4" t="s">
         <v>17</v>
@@ -1166,7 +1160,7 @@
         <v>30</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>15</v>
@@ -1175,7 +1169,7 @@
         <v>21</v>
       </c>
       <c r="I8" s="7" t="n">
-        <v>0.19</v>
+        <v>0.406</v>
       </c>
       <c r="J8" s="4" t="s">
         <v>17</v>
@@ -1203,7 +1197,7 @@
         <v>32</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>15</v>
@@ -1212,7 +1206,7 @@
         <v>21</v>
       </c>
       <c r="I9" s="7" t="n">
-        <v>0.482</v>
+        <v>0.484</v>
       </c>
       <c r="J9" s="4" t="s">
         <v>17</v>
@@ -1233,11 +1227,11 @@
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="14" t="s">
         <v>34</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>15</v>
@@ -1246,7 +1240,7 @@
         <v>21</v>
       </c>
       <c r="I10" s="7" t="n">
-        <v>1.7</v>
+        <v>0.596</v>
       </c>
       <c r="J10" s="4" t="s">
         <v>17</v>
@@ -1268,11 +1262,11 @@
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="14" t="s">
         <v>36</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>15</v>
@@ -1281,7 +1275,7 @@
         <v>21</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>1.31</v>
+        <v>0.36</v>
       </c>
       <c r="J11" s="4" t="s">
         <v>17</v>
@@ -1303,21 +1297,15 @@
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
-      <c r="E12" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="F12" s="2" t="n">
-        <v>10</v>
-      </c>
+      <c r="E12" s="15"/>
+      <c r="F12" s="2"/>
       <c r="G12" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H12" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I12" s="2" t="n">
-        <v>0.344</v>
-      </c>
+      <c r="I12" s="2"/>
       <c r="J12" s="4" t="s">
         <v>17</v>
       </c>
@@ -1330,28 +1318,22 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
-      <c r="E13" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" s="2" t="n">
-        <v>10</v>
-      </c>
+      <c r="E13" s="15"/>
+      <c r="F13" s="2"/>
       <c r="G13" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H13" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I13" s="2" t="n">
-        <v>0.482</v>
-      </c>
+      <c r="I13" s="2"/>
       <c r="J13" s="4" t="s">
         <v>17</v>
       </c>
@@ -1364,28 +1346,22 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
-      <c r="E14" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="F14" s="14" t="n">
-        <v>5</v>
-      </c>
+      <c r="E14" s="15"/>
+      <c r="F14" s="16"/>
       <c r="G14" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I14" s="2" t="n">
-        <v>0.781</v>
-      </c>
+      <c r="I14" s="2"/>
       <c r="J14" s="4" t="s">
         <v>17</v>
       </c>
@@ -1398,30 +1374,22 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
-      <c r="E15" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="F15" s="15" t="n">
-        <f aca="false">10</f>
-        <v>10</v>
-      </c>
+      <c r="E15" s="15"/>
+      <c r="F15" s="17"/>
       <c r="G15" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H15" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I15" s="2" t="n">
-        <f aca="false">0.427</f>
-        <v>0.427</v>
-      </c>
+      <c r="I15" s="2"/>
       <c r="J15" s="4" t="s">
         <v>17</v>
       </c>
@@ -1434,27 +1402,20 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
-      <c r="E16" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="F16" s="15" t="n">
-        <v>3</v>
-      </c>
+      <c r="E16" s="15"/>
+      <c r="F16" s="17"/>
       <c r="G16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H16" s="16"/>
-      <c r="I16" s="17" t="n">
-        <f aca="false">5.09</f>
-        <v>5.09</v>
-      </c>
+      <c r="H16" s="18"/>
+      <c r="I16" s="19"/>
       <c r="J16" s="4" t="s">
         <v>17</v>
       </c>
@@ -1467,26 +1428,20 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
-      <c r="E17" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="F17" s="15" t="n">
-        <v>10</v>
-      </c>
+      <c r="E17" s="20"/>
+      <c r="F17" s="17"/>
       <c r="G17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H17" s="16"/>
-      <c r="I17" s="17" t="n">
-        <v>0.285</v>
-      </c>
+      <c r="H17" s="18"/>
+      <c r="I17" s="19"/>
       <c r="J17" s="4" t="s">
         <v>17</v>
       </c>
@@ -1499,26 +1454,20 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
-      <c r="E18" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="F18" s="15" t="n">
-        <v>5</v>
-      </c>
+      <c r="E18" s="20"/>
+      <c r="F18" s="17"/>
       <c r="G18" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H18" s="16"/>
-      <c r="I18" s="2" t="n">
-        <v>0.409</v>
-      </c>
+      <c r="H18" s="18"/>
+      <c r="I18" s="2"/>
       <c r="J18" s="4" t="s">
         <v>17</v>
       </c>
@@ -1531,26 +1480,20 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
-      <c r="E19" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="F19" s="3" t="n">
-        <v>5</v>
-      </c>
+      <c r="E19" s="21"/>
+      <c r="F19" s="3"/>
       <c r="G19" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H19" s="16"/>
-      <c r="I19" s="20" t="n">
-        <v>21</v>
-      </c>
+      <c r="H19" s="18"/>
+      <c r="I19" s="22"/>
       <c r="J19" s="4" t="s">
         <v>17</v>
       </c>
@@ -1563,7 +1506,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>13</v>
@@ -1574,7 +1517,7 @@
       <c r="G20" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="16"/>
+      <c r="H20" s="18"/>
       <c r="J20" s="4" t="s">
         <v>17</v>
       </c>
@@ -1587,7 +1530,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>13</v>
@@ -1607,17 +1550,17 @@
       <c r="D22" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E22" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="F22" s="21" t="n">
+      <c r="E22" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="F22" s="23" t="n">
         <v>1</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="J22" s="4" t="s">
         <v>17</v>
@@ -1634,14 +1577,14 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F23" s="3"/>
-      <c r="I23" s="22" t="e">
+      <c r="I23" s="24" t="e">
         <f aca="false">SUMPRODUCT(I3:I10,F3:F13)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F24" s="3"/>
-      <c r="I24" s="22" t="e">
+      <c r="I24" s="24" t="e">
         <f aca="false">I23*1.2</f>
         <v>#VALUE!</v>
       </c>
@@ -1652,304 +1595,304 @@
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F26" s="3"/>
       <c r="H26" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H27" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D29" s="25"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="26"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="27"/>
+      <c r="B33" s="28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="27"/>
+      <c r="B34" s="28"/>
+      <c r="D34" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E34" s="29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="27"/>
+      <c r="B35" s="28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="27"/>
+      <c r="B36" s="28"/>
+      <c r="D36" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E36" s="29" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D29" s="23"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="24"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="25" t="s">
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="27"/>
+      <c r="B37" s="28"/>
+      <c r="D37" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="25" t="s">
+      <c r="E37" s="29" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="25" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="25"/>
-      <c r="B33" s="26" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="25"/>
-      <c r="B34" s="26"/>
-      <c r="D34" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E34" s="27" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="25"/>
-      <c r="B35" s="26" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="25"/>
-      <c r="B36" s="26"/>
-      <c r="D36" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E36" s="27" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="25"/>
-      <c r="B37" s="26"/>
-      <c r="D37" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E37" s="27" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D38" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E38" s="29" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="27"/>
+      <c r="B39" s="28"/>
+      <c r="D39" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E39" s="29" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="27"/>
+      <c r="B40" s="28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="27"/>
+      <c r="B41" s="28"/>
+      <c r="D41" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E41" s="29" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="27"/>
+      <c r="B42" s="28"/>
+      <c r="D42" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E42" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="E38" s="27" t="s">
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="27"/>
+      <c r="B43" s="28"/>
+      <c r="D43" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="25"/>
-      <c r="B39" s="26"/>
-      <c r="D39" s="1" t="s">
+      <c r="E43" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="E39" s="27" t="s">
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="27"/>
+      <c r="B44" s="28"/>
+      <c r="D44" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="25"/>
-      <c r="B40" s="26" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="25"/>
-      <c r="B41" s="26"/>
-      <c r="D41" s="1" t="s">
+      <c r="E44" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="E41" s="27" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="25"/>
-      <c r="B42" s="26"/>
-      <c r="D42" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E42" s="27" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="25"/>
-      <c r="B43" s="26"/>
-      <c r="D43" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E43" s="27" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="25"/>
-      <c r="B44" s="26"/>
-      <c r="D44" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E44" s="27" t="s">
-        <v>78</v>
-      </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="25"/>
-      <c r="B45" s="26" t="s">
+      <c r="A45" s="27"/>
+      <c r="B45" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="E45" s="27"/>
+      <c r="E45" s="29"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D46" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E46" s="28" t="s">
-        <v>80</v>
+        <v>72</v>
+      </c>
+      <c r="E46" s="30" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D47" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E47" s="28" t="s">
-        <v>82</v>
+        <v>74</v>
+      </c>
+      <c r="E47" s="30" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D48" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E48" s="28" t="s">
-        <v>84</v>
+        <v>76</v>
+      </c>
+      <c r="E48" s="30" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="E49" s="29"/>
+      <c r="B49" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="E49" s="31"/>
     </row>
     <row r="50" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D50" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E50" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="F50" s="17" t="s">
-        <v>88</v>
+        <v>79</v>
+      </c>
+      <c r="E50" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="F50" s="19" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D51" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E51" s="28" t="s">
-        <v>90</v>
+        <v>82</v>
+      </c>
+      <c r="E51" s="30" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D52" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E52" s="28" t="s">
-        <v>92</v>
+        <v>84</v>
+      </c>
+      <c r="E52" s="30" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D53" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E53" s="30" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="E54" s="30"/>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="28"/>
+      <c r="D55" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E55" s="30" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="28"/>
+      <c r="D56" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E56" s="30" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="28"/>
+      <c r="D57" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E53" s="28" t="s">
+      <c r="E57" s="30" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="26" t="s">
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="28"/>
+      <c r="D58" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="28"/>
-    </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="26"/>
-      <c r="D55" s="1" t="s">
+      <c r="E58" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="E55" s="28" t="s">
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="28" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="26"/>
-      <c r="D56" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E56" s="28" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="26"/>
-      <c r="D57" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E57" s="28" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="26"/>
-      <c r="D58" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E58" s="28" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="E59" s="29"/>
+      <c r="E59" s="31"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D60" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E60" s="28" t="s">
-        <v>106</v>
+        <v>98</v>
+      </c>
+      <c r="E60" s="30" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D61" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E61" s="28" t="s">
-        <v>108</v>
+        <v>100</v>
+      </c>
+      <c r="E61" s="30" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D62" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E62" s="29" t="s">
-        <v>110</v>
+        <v>102</v>
+      </c>
+      <c r="E62" s="31" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D63" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E63" s="28" t="s">
-        <v>112</v>
+        <v>104</v>
+      </c>
+      <c r="E63" s="30" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D64" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E64" s="28" t="s">
-        <v>114</v>
+        <v>106</v>
+      </c>
+      <c r="E64" s="30" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="26" t="s">
-        <v>115</v>
+      <c r="A65" s="28" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/Hardware/MOUSER-450001XXXXxlsx_cansat_REMPLISfinal.xlsx
+++ b/Hardware/MOUSER-450001XXXXxlsx_cansat_REMPLISfinal.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="111">
   <si>
     <t xml:space="preserve">MOUSER</t>
   </si>
@@ -140,6 +140,9 @@
   </si>
   <si>
     <t xml:space="preserve">110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">771-MMBZ33VBQBZ </t>
   </si>
   <si>
     <t xml:space="preserve">120</t>
@@ -911,7 +914,7 @@
   <dimension ref="A1:P65"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E19" activeCellId="0" sqref="E19"/>
+      <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1024,7 +1027,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>15</v>
@@ -1311,7 +1314,7 @@
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="14" t="s">
         <v>38</v>
       </c>
       <c r="F12" s="2" t="n">
@@ -1345,15 +1348,21 @@
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="2"/>
+      <c r="E13" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="2" t="n">
+        <v>15</v>
+      </c>
       <c r="G13" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H13" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I13" s="2"/>
+      <c r="I13" s="2" t="n">
+        <v>0.22</v>
+      </c>
       <c r="J13" s="4" t="s">
         <v>17</v>
       </c>
@@ -1366,7 +1375,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>13</v>
@@ -1394,7 +1403,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>13</v>
@@ -1422,7 +1431,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>13</v>
@@ -1448,7 +1457,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>13</v>
@@ -1474,7 +1483,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>13</v>
@@ -1500,7 +1509,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>13</v>
@@ -1526,7 +1535,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>13</v>
@@ -1550,7 +1559,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>13</v>
@@ -1571,7 +1580,7 @@
         <v>23</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F22" s="24" t="n">
         <v>1</v>
@@ -1580,7 +1589,7 @@
         <v>15</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J22" s="4" t="s">
         <v>17</v>
@@ -1615,12 +1624,12 @@
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F26" s="3"/>
       <c r="H26" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H27" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1631,17 +1640,17 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="28" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1654,10 +1663,10 @@
       <c r="A34" s="28"/>
       <c r="B34" s="29"/>
       <c r="D34" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E34" s="30" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1670,38 +1679,38 @@
       <c r="A36" s="28"/>
       <c r="B36" s="29"/>
       <c r="D36" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E36" s="30" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="28"/>
       <c r="B37" s="29"/>
       <c r="D37" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E37" s="30" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D38" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E38" s="30" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="28"/>
       <c r="B39" s="29"/>
       <c r="D39" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E39" s="30" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1714,40 +1723,40 @@
       <c r="A41" s="28"/>
       <c r="B41" s="29"/>
       <c r="D41" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E41" s="30" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="28"/>
       <c r="B42" s="29"/>
       <c r="D42" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E42" s="30" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="28"/>
       <c r="B43" s="29"/>
       <c r="D43" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E43" s="30" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="28"/>
       <c r="B44" s="29"/>
       <c r="D44" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E44" s="30" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1759,160 +1768,160 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D46" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E46" s="31" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D47" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E47" s="31" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D48" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E48" s="31" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="29" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E49" s="32"/>
     </row>
     <row r="50" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D50" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E50" s="31" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F50" s="20" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D51" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E51" s="31" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D52" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E52" s="31" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D53" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E53" s="31" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="29" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E54" s="31"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="29"/>
       <c r="D55" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E55" s="31" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="29"/>
       <c r="D56" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E56" s="31" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="29"/>
       <c r="D57" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E57" s="31" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="29"/>
       <c r="D58" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E58" s="31" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="29" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E59" s="32"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D60" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E60" s="31" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D61" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E61" s="31" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D62" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E62" s="32" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D63" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E63" s="31" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D64" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E64" s="31" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="29" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
